--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cthrc1-Fzd5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cthrc1-Fzd5.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6191033333333333</v>
+        <v>1.324075666666667</v>
       </c>
       <c r="H2">
-        <v>1.85731</v>
+        <v>3.972227</v>
       </c>
       <c r="I2">
-        <v>0.007929637811697733</v>
+        <v>0.01675578032580584</v>
       </c>
       <c r="J2">
-        <v>0.007962490129789305</v>
+        <v>0.01684165790066494</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.676920666666666</v>
+        <v>2.874784666666667</v>
       </c>
       <c r="N2">
-        <v>8.030761999999999</v>
+        <v>8.624354</v>
       </c>
       <c r="O2">
-        <v>0.1137411923116975</v>
+        <v>0.1187109652550681</v>
       </c>
       <c r="P2">
-        <v>0.1167596329733683</v>
+        <v>0.121184727686443</v>
       </c>
       <c r="Q2">
-        <v>1.657290507802222</v>
+        <v>3.806432424039778</v>
       </c>
       <c r="R2">
-        <v>14.91561457022</v>
+        <v>34.257891816358</v>
       </c>
       <c r="S2">
-        <v>0.0009019264593024199</v>
+        <v>0.00198909485607829</v>
       </c>
       <c r="T2">
-        <v>0.0009296974251082671</v>
+        <v>0.002040951726480312</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6191033333333333</v>
+        <v>1.324075666666667</v>
       </c>
       <c r="H3">
-        <v>1.85731</v>
+        <v>3.972227</v>
       </c>
       <c r="I3">
-        <v>0.007929637811697733</v>
+        <v>0.01675578032580584</v>
       </c>
       <c r="J3">
-        <v>0.007962490129789305</v>
+        <v>0.01684165790066494</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>32.27421</v>
       </c>
       <c r="O3">
-        <v>0.4571057050773152</v>
+        <v>0.4442422727481699</v>
       </c>
       <c r="P3">
-        <v>0.4692362834442626</v>
+        <v>0.4534996302499962</v>
       </c>
       <c r="Q3">
-        <v>6.660356997233333</v>
+        <v>14.24449870729666</v>
       </c>
       <c r="R3">
-        <v>59.9432129751</v>
+        <v>128.20048836567</v>
       </c>
       <c r="S3">
-        <v>0.003624682682923831</v>
+        <v>0.007443625933605056</v>
       </c>
       <c r="T3">
-        <v>0.003736289275463958</v>
+        <v>0.007637685630748476</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6191033333333333</v>
+        <v>1.324075666666667</v>
       </c>
       <c r="H4">
-        <v>1.85731</v>
+        <v>3.972227</v>
       </c>
       <c r="I4">
-        <v>0.007929637811697733</v>
+        <v>0.01675578032580584</v>
       </c>
       <c r="J4">
-        <v>0.007962490129789305</v>
+        <v>0.01684165790066494</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.564735333333334</v>
+        <v>5.147441999999999</v>
       </c>
       <c r="N4">
-        <v>10.694206</v>
+        <v>15.442326</v>
       </c>
       <c r="O4">
-        <v>0.1514640505181089</v>
+        <v>0.2125577666737049</v>
       </c>
       <c r="P4">
-        <v>0.1554835727296605</v>
+        <v>0.2169871588243338</v>
       </c>
       <c r="Q4">
-        <v>2.206939527317778</v>
+        <v>6.815602697777998</v>
       </c>
       <c r="R4">
-        <v>19.86245574586</v>
+        <v>61.340424280002</v>
       </c>
       <c r="S4">
-        <v>0.001201055062101292</v>
+        <v>0.003561571244928493</v>
       </c>
       <c r="T4">
-        <v>0.001238036413204299</v>
+        <v>0.003654423497756679</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6191033333333333</v>
+        <v>1.324075666666667</v>
       </c>
       <c r="H5">
-        <v>1.85731</v>
+        <v>3.972227</v>
       </c>
       <c r="I5">
-        <v>0.007929637811697733</v>
+        <v>0.01675578032580584</v>
       </c>
       <c r="J5">
-        <v>0.007962490129789305</v>
+        <v>0.01684165790066494</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.8252775</v>
+        <v>1.483016</v>
       </c>
       <c r="N5">
-        <v>3.650555</v>
+        <v>2.966032</v>
       </c>
       <c r="O5">
-        <v>0.07755524537386904</v>
+        <v>0.06123946008548931</v>
       </c>
       <c r="P5">
-        <v>0.05307559381651387</v>
+        <v>0.04167706708575228</v>
       </c>
       <c r="Q5">
-        <v>1.130035384508333</v>
+        <v>1.963625398877334</v>
       </c>
       <c r="R5">
-        <v>6.780212307049999</v>
+        <v>11.781752393264</v>
       </c>
       <c r="S5">
-        <v>0.0006149850062121277</v>
+        <v>0.001026114940463414</v>
       </c>
       <c r="T5">
-        <v>0.000422613891896698</v>
+        <v>0.0007019109061613025</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6191033333333333</v>
+        <v>1.324075666666667</v>
       </c>
       <c r="H6">
-        <v>1.85731</v>
+        <v>3.972227</v>
       </c>
       <c r="I6">
-        <v>0.007929637811697733</v>
+        <v>0.01675578032580584</v>
       </c>
       <c r="J6">
-        <v>0.007962490129789305</v>
+        <v>0.01684165790066494</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.710187333333333</v>
+        <v>3.953360666666667</v>
       </c>
       <c r="N6">
-        <v>14.130562</v>
+        <v>11.860082</v>
       </c>
       <c r="O6">
-        <v>0.2001338067190093</v>
+        <v>0.1632495352375677</v>
       </c>
       <c r="P6">
-        <v>0.2054449170361947</v>
+        <v>0.1666514161534747</v>
       </c>
       <c r="Q6">
-        <v>2.916092678691111</v>
+        <v>5.234548660290445</v>
       </c>
       <c r="R6">
-        <v>26.24483410822</v>
+        <v>47.110937942614</v>
       </c>
       <c r="S6">
-        <v>0.001586988601158062</v>
+        <v>0.002735373350730584</v>
       </c>
       <c r="T6">
-        <v>0.001635853124116083</v>
+        <v>0.002806686139518168</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>229.467361</v>
       </c>
       <c r="I7">
-        <v>0.9796927073757713</v>
+        <v>0.9679468703219594</v>
       </c>
       <c r="J7">
-        <v>0.9837515530909214</v>
+        <v>0.9729078406975189</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>2.676920666666666</v>
+        <v>2.874784666666667</v>
       </c>
       <c r="N7">
-        <v>8.030761999999999</v>
+        <v>8.624354</v>
       </c>
       <c r="O7">
-        <v>0.1137411923116975</v>
+        <v>0.1187109652550681</v>
       </c>
       <c r="P7">
-        <v>0.1167596329733683</v>
+        <v>0.121184727686443</v>
       </c>
       <c r="Q7">
-        <v>204.7553069954535</v>
+        <v>219.8897503010882</v>
       </c>
       <c r="R7">
-        <v>1842.797762959082</v>
+        <v>1979.007752709794</v>
       </c>
       <c r="S7">
-        <v>0.1114314166359952</v>
+        <v>0.114905907291542</v>
       </c>
       <c r="T7">
-        <v>0.1148624702758771</v>
+        <v>0.1179015717389341</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>229.467361</v>
       </c>
       <c r="I8">
-        <v>0.9796927073757713</v>
+        <v>0.9679468703219594</v>
       </c>
       <c r="J8">
-        <v>0.9837515530909214</v>
+        <v>0.9729078406975189</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>32.27421</v>
       </c>
       <c r="O8">
-        <v>0.4571057050773152</v>
+        <v>0.4442422727481699</v>
       </c>
       <c r="P8">
-        <v>0.4692362834442626</v>
+        <v>0.4534996302499962</v>
       </c>
       <c r="Q8">
         <v>822.8753107844232</v>
       </c>
       <c r="R8">
-        <v>7405.877797059809</v>
+        <v>7405.877797059808</v>
       </c>
       <c r="S8">
-        <v>0.4478231257641058</v>
+        <v>0.4300029175713053</v>
       </c>
       <c r="T8">
-        <v>0.4616119226049052</v>
+        <v>0.441213346023647</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>229.467361</v>
       </c>
       <c r="I9">
-        <v>0.9796927073757713</v>
+        <v>0.9679468703219594</v>
       </c>
       <c r="J9">
-        <v>0.9837515530909214</v>
+        <v>0.9729078406975189</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.564735333333334</v>
+        <v>5.147441999999999</v>
       </c>
       <c r="N9">
-        <v>10.694206</v>
+        <v>15.442326</v>
       </c>
       <c r="O9">
-        <v>0.1514640505181089</v>
+        <v>0.2125577666737049</v>
       </c>
       <c r="P9">
-        <v>0.1554835727296605</v>
+        <v>0.2169871588243338</v>
       </c>
       <c r="Q9">
-        <v>272.6634698678184</v>
+        <v>393.7233105468539</v>
       </c>
       <c r="R9">
-        <v>2453.971228810366</v>
+        <v>3543.509794921685</v>
       </c>
       <c r="S9">
-        <v>0.1483882257221867</v>
+        <v>0.205744625014438</v>
       </c>
       <c r="T9">
-        <v>0.1529572061529287</v>
+        <v>0.2111085081508722</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>229.467361</v>
       </c>
       <c r="I10">
-        <v>0.9796927073757713</v>
+        <v>0.9679468703219594</v>
       </c>
       <c r="J10">
-        <v>0.9837515530909214</v>
+        <v>0.9729078406975189</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.8252775</v>
+        <v>1.483016</v>
       </c>
       <c r="N10">
-        <v>3.650555</v>
+        <v>2.966032</v>
       </c>
       <c r="O10">
-        <v>0.07755524537386904</v>
+        <v>0.06123946008548931</v>
       </c>
       <c r="P10">
-        <v>0.05307559381651387</v>
+        <v>0.04167706708575228</v>
       </c>
       <c r="Q10">
-        <v>139.6138703392258</v>
+        <v>113.4345892802587</v>
       </c>
       <c r="R10">
-        <v>837.683222035355</v>
+        <v>680.607535681552</v>
       </c>
       <c r="S10">
-        <v>0.07598030831151803</v>
+        <v>0.05927654372995593</v>
       </c>
       <c r="T10">
-        <v>0.05221319784821843</v>
+        <v>0.04054794534500489</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>229.467361</v>
       </c>
       <c r="I11">
-        <v>0.9796927073757713</v>
+        <v>0.9679468703219594</v>
       </c>
       <c r="J11">
-        <v>0.9837515530909214</v>
+        <v>0.9729078406975189</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.710187333333333</v>
+        <v>3.953360666666667</v>
       </c>
       <c r="N11">
-        <v>14.130562</v>
+        <v>11.860082</v>
       </c>
       <c r="O11">
-        <v>0.2001338067190093</v>
+        <v>0.1632495352375677</v>
       </c>
       <c r="P11">
-        <v>0.2054449170361947</v>
+        <v>0.1666514161534747</v>
       </c>
       <c r="Q11">
-        <v>360.2780857318758</v>
+        <v>302.3890797537335</v>
       </c>
       <c r="R11">
-        <v>3242.502771586882</v>
+        <v>2721.501717783602</v>
       </c>
       <c r="S11">
-        <v>0.1960696309419656</v>
+        <v>0.1580168767147181</v>
       </c>
       <c r="T11">
-        <v>0.2021067562089921</v>
+        <v>0.1621364694390607</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.9663804999999999</v>
+        <v>1.2088275</v>
       </c>
       <c r="H12">
-        <v>1.932761</v>
+        <v>2.417655</v>
       </c>
       <c r="I12">
-        <v>0.01237765481253107</v>
+        <v>0.0152973493522347</v>
       </c>
       <c r="J12">
-        <v>0.008285956779289243</v>
+        <v>0.01025050140181618</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>2.676920666666666</v>
+        <v>2.874784666666667</v>
       </c>
       <c r="N12">
-        <v>8.030761999999999</v>
+        <v>8.624354</v>
       </c>
       <c r="O12">
-        <v>0.1137411923116975</v>
+        <v>0.1187109652550681</v>
       </c>
       <c r="P12">
-        <v>0.1167596329733683</v>
+        <v>0.121184727686443</v>
       </c>
       <c r="Q12">
-        <v>2.586923932313666</v>
+        <v>3.475118761645</v>
       </c>
       <c r="R12">
-        <v>15.521543593882</v>
+        <v>20.85071256987</v>
       </c>
       <c r="S12">
-        <v>0.001407849216399904</v>
+        <v>0.001815963107447771</v>
       </c>
       <c r="T12">
-        <v>0.0009674652723830051</v>
+        <v>0.001242204221028597</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.9663804999999999</v>
+        <v>1.2088275</v>
       </c>
       <c r="H13">
-        <v>1.932761</v>
+        <v>2.417655</v>
       </c>
       <c r="I13">
-        <v>0.01237765481253107</v>
+        <v>0.0152973493522347</v>
       </c>
       <c r="J13">
-        <v>0.008285956779289243</v>
+        <v>0.01025050140181618</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>32.27421</v>
       </c>
       <c r="O13">
-        <v>0.4571057050773152</v>
+        <v>0.4442422727481699</v>
       </c>
       <c r="P13">
-        <v>0.4692362834442626</v>
+        <v>0.4534996302499962</v>
       </c>
       <c r="Q13">
-        <v>10.396389065635</v>
+        <v>13.004650862925</v>
       </c>
       <c r="R13">
-        <v>62.37833439380999</v>
+        <v>78.02790517754998</v>
       </c>
       <c r="S13">
-        <v>0.005657896630285638</v>
+        <v>0.006795729243259485</v>
       </c>
       <c r="T13">
-        <v>0.003888071563893477</v>
+        <v>0.004648598595600706</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.9663804999999999</v>
+        <v>1.2088275</v>
       </c>
       <c r="H14">
-        <v>1.932761</v>
+        <v>2.417655</v>
       </c>
       <c r="I14">
-        <v>0.01237765481253107</v>
+        <v>0.0152973493522347</v>
       </c>
       <c r="J14">
-        <v>0.008285956779289243</v>
+        <v>0.01025050140181618</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.564735333333334</v>
+        <v>5.147441999999999</v>
       </c>
       <c r="N14">
-        <v>10.694206</v>
+        <v>15.442326</v>
       </c>
       <c r="O14">
-        <v>0.1514640505181089</v>
+        <v>0.2125577666737049</v>
       </c>
       <c r="P14">
-        <v>0.1554835727296605</v>
+        <v>0.2169871588243338</v>
       </c>
       <c r="Q14">
-        <v>3.444890713794333</v>
+        <v>6.222369444254999</v>
       </c>
       <c r="R14">
-        <v>20.669344282766</v>
+        <v>37.33421666552999</v>
       </c>
       <c r="S14">
-        <v>0.001874769733820919</v>
+        <v>0.003251570414338454</v>
       </c>
       <c r="T14">
-        <v>0.001288330163527442</v>
+        <v>0.002224227175704945</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.9663804999999999</v>
+        <v>1.2088275</v>
       </c>
       <c r="H15">
-        <v>1.932761</v>
+        <v>2.417655</v>
       </c>
       <c r="I15">
-        <v>0.01237765481253107</v>
+        <v>0.0152973493522347</v>
       </c>
       <c r="J15">
-        <v>0.008285956779289243</v>
+        <v>0.01025050140181618</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.8252775</v>
+        <v>1.483016</v>
       </c>
       <c r="N15">
-        <v>3.650555</v>
+        <v>2.966032</v>
       </c>
       <c r="O15">
-        <v>0.07755524537386904</v>
+        <v>0.06123946008548931</v>
       </c>
       <c r="P15">
-        <v>0.05307559381651387</v>
+        <v>0.04167706708575228</v>
       </c>
       <c r="Q15">
-        <v>1.76391258308875</v>
+        <v>1.79271052374</v>
       </c>
       <c r="R15">
-        <v>7.055650332354999</v>
+        <v>7.17084209496</v>
       </c>
       <c r="S15">
-        <v>0.000959952056138898</v>
+        <v>0.0009368014150699625</v>
       </c>
       <c r="T15">
-        <v>0.0004397820763987453</v>
+        <v>0.0004272108345860909</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.9663804999999999</v>
+        <v>1.2088275</v>
       </c>
       <c r="H16">
-        <v>1.932761</v>
+        <v>2.417655</v>
       </c>
       <c r="I16">
-        <v>0.01237765481253107</v>
+        <v>0.0152973493522347</v>
       </c>
       <c r="J16">
-        <v>0.008285956779289243</v>
+        <v>0.01025050140181618</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.710187333333333</v>
+        <v>3.953360666666667</v>
       </c>
       <c r="N16">
-        <v>14.130562</v>
+        <v>11.860082</v>
       </c>
       <c r="O16">
-        <v>0.2001338067190093</v>
+        <v>0.1632495352375677</v>
       </c>
       <c r="P16">
-        <v>0.2054449170361947</v>
+        <v>0.1666514161534747</v>
       </c>
       <c r="Q16">
-        <v>4.551833190280332</v>
+        <v>4.778931091285</v>
       </c>
       <c r="R16">
-        <v>27.310999141682</v>
+        <v>28.67358654771</v>
       </c>
       <c r="S16">
-        <v>0.002477187175885708</v>
+        <v>0.002497285172119022</v>
       </c>
       <c r="T16">
-        <v>0.001702307703086574</v>
+        <v>0.001708260574895845</v>
       </c>
     </row>
   </sheetData>
